--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1563.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1563.xlsx
@@ -351,10 +351,10 @@
         <v>1.338875309539451</v>
       </c>
       <c r="B1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>1.355940608913956</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1563.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1563.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.338875309539451</v>
+        <v>0.8296735286712646</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1.698322415351868</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>6.595419883728027</v>
       </c>
       <c r="D1">
-        <v>1.355940608913956</v>
+        <v>2.133639812469482</v>
       </c>
       <c r="E1">
-        <v>0.8628923321048063</v>
+        <v>0.950488269329071</v>
       </c>
     </row>
   </sheetData>
